--- a/israelWhatWasWasEng.xlsx
+++ b/israelWhatWasWasEng.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>Ramzor</t>
   </si>
@@ -210,6 +210,24 @@
   </si>
   <si>
     <t>Lockdown3.5</t>
+  </si>
+  <si>
+    <t>Step2Out_Kanyon</t>
+  </si>
+  <si>
+    <t>NightLockDownPurim</t>
+  </si>
+  <si>
+    <t>Step3Out_Cafe</t>
+  </si>
+  <si>
+    <t>Step4Out_GreenPassAllAbroad</t>
+  </si>
+  <si>
+    <t>18/0/2021</t>
+  </si>
+  <si>
+    <t>FullOpenSchool_NoMaskInArea</t>
   </si>
 </sst>
 </file>
@@ -546,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.21875" defaultRowHeight="13.2"/>
@@ -1053,10 +1071,58 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="3">
-        <v>44538</v>
+        <v>44204</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3">
+        <v>44234</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3">
+        <v>44252</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="3">
+        <v>44262</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="3">
+        <v>44276</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
